--- a/state_results/Rivers/WaitangiatusWaiouruSTP_6b14f50901.xlsx
+++ b/state_results/Rivers/WaitangiatusWaiouruSTP_6b14f50901.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U201"/>
+  <dimension ref="A1:U218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -570,7 +570,7 @@
         <v>0.018</v>
       </c>
       <c r="G2" t="n">
-        <v>0.025750254543921</v>
+        <v>0.0257533762768693</v>
       </c>
       <c r="H2" t="n">
         <v>0.091</v>
@@ -651,7 +651,7 @@
         <v>0.018</v>
       </c>
       <c r="G3" t="n">
-        <v>0.025750254543921</v>
+        <v>0.0257533762768693</v>
       </c>
       <c r="H3" t="n">
         <v>0.091</v>
@@ -732,7 +732,7 @@
         <v>25</v>
       </c>
       <c r="G4" t="n">
-        <v>543.2502962912901</v>
+        <v>543.256522321966</v>
       </c>
       <c r="H4" t="n">
         <v>11199</v>
@@ -817,7 +817,7 @@
         <v>25</v>
       </c>
       <c r="G5" t="n">
-        <v>543.2502962912901</v>
+        <v>543.256522321966</v>
       </c>
       <c r="H5" t="n">
         <v>11199</v>
@@ -902,7 +902,7 @@
         <v>25</v>
       </c>
       <c r="G6" t="n">
-        <v>543.2502962912901</v>
+        <v>543.256522321966</v>
       </c>
       <c r="H6" t="n">
         <v>11199</v>
@@ -987,7 +987,7 @@
         <v>25</v>
       </c>
       <c r="G7" t="n">
-        <v>543.2502962912901</v>
+        <v>543.256522321966</v>
       </c>
       <c r="H7" t="n">
         <v>11199</v>
@@ -1072,7 +1072,7 @@
         <v>0.00282</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0174696961141588</v>
+        <v>0.0174972727192235</v>
       </c>
       <c r="H8" t="n">
         <v>0.250163274305711</v>
@@ -1153,7 +1153,7 @@
         <v>0.00282</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0174696961141588</v>
+        <v>0.0174972727192235</v>
       </c>
       <c r="H9" t="n">
         <v>0.250163274305711</v>
@@ -1230,7 +1230,7 @@
         <v>0.271</v>
       </c>
       <c r="G10" t="n">
-        <v>0.330805555555556</v>
+        <v>0.330763888888889</v>
       </c>
       <c r="H10" t="n">
         <v>1.295</v>
@@ -1307,7 +1307,7 @@
         <v>0.271</v>
       </c>
       <c r="G11" t="n">
-        <v>0.330805555555556</v>
+        <v>0.330763888888889</v>
       </c>
       <c r="H11" t="n">
         <v>1.295</v>
@@ -1469,7 +1469,7 @@
         <v>0.018</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0262890925240257</v>
+        <v>0.0262915899103844</v>
       </c>
       <c r="H13" t="n">
         <v>0.091</v>
@@ -1550,7 +1550,7 @@
         <v>0.018</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0262890925240257</v>
+        <v>0.0262915899103844</v>
       </c>
       <c r="H14" t="n">
         <v>0.091</v>
@@ -1631,7 +1631,7 @@
         <v>21</v>
       </c>
       <c r="G15" t="n">
-        <v>493.400237033032</v>
+        <v>493.405217857573</v>
       </c>
       <c r="H15" t="n">
         <v>11199</v>
@@ -1716,7 +1716,7 @@
         <v>21</v>
       </c>
       <c r="G16" t="n">
-        <v>493.400237033032</v>
+        <v>493.405217857573</v>
       </c>
       <c r="H16" t="n">
         <v>11199</v>
@@ -1801,7 +1801,7 @@
         <v>21</v>
       </c>
       <c r="G17" t="n">
-        <v>493.400237033032</v>
+        <v>493.405217857573</v>
       </c>
       <c r="H17" t="n">
         <v>11199</v>
@@ -1886,7 +1886,7 @@
         <v>21</v>
       </c>
       <c r="G18" t="n">
-        <v>493.400237033032</v>
+        <v>493.405217857573</v>
       </c>
       <c r="H18" t="n">
         <v>11199</v>
@@ -1971,7 +1971,7 @@
         <v>0.0035</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0245771500467155</v>
+        <v>0.0246080201453744</v>
       </c>
       <c r="H19" t="n">
         <v>0.250163274305711</v>
@@ -2052,7 +2052,7 @@
         <v>0.0035</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0245771500467155</v>
+        <v>0.0246080201453744</v>
       </c>
       <c r="H20" t="n">
         <v>0.250163274305711</v>
@@ -2129,7 +2129,7 @@
         <v>0.286</v>
       </c>
       <c r="G21" t="n">
-        <v>0.341866666666667</v>
+        <v>0.341833333333333</v>
       </c>
       <c r="H21" t="n">
         <v>1.295</v>
@@ -2206,7 +2206,7 @@
         <v>0.286</v>
       </c>
       <c r="G22" t="n">
-        <v>0.341866666666667</v>
+        <v>0.341833333333333</v>
       </c>
       <c r="H22" t="n">
         <v>1.295</v>
@@ -2676,7 +2676,7 @@
         <v>0.021</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0312767907144927</v>
+        <v>0.0312791818290914</v>
       </c>
       <c r="H28" t="n">
         <v>0.091</v>
@@ -2757,7 +2757,7 @@
         <v>0.021</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0312767907144927</v>
+        <v>0.0312791818290914</v>
       </c>
       <c r="H29" t="n">
         <v>0.091</v>
@@ -2838,7 +2838,7 @@
         <v>19</v>
       </c>
       <c r="G30" t="n">
-        <v>501.558796007116</v>
+        <v>501.558818770787</v>
       </c>
       <c r="H30" t="n">
         <v>11199</v>
@@ -2923,7 +2923,7 @@
         <v>19</v>
       </c>
       <c r="G31" t="n">
-        <v>501.558796007116</v>
+        <v>501.558818770787</v>
       </c>
       <c r="H31" t="n">
         <v>11199</v>
@@ -3008,7 +3008,7 @@
         <v>19</v>
       </c>
       <c r="G32" t="n">
-        <v>501.558796007116</v>
+        <v>501.558818770787</v>
       </c>
       <c r="H32" t="n">
         <v>11199</v>
@@ -3093,7 +3093,7 @@
         <v>19</v>
       </c>
       <c r="G33" t="n">
-        <v>501.558796007116</v>
+        <v>501.558818770787</v>
       </c>
       <c r="H33" t="n">
         <v>11199</v>
@@ -3178,7 +3178,7 @@
         <v>0.00424</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0296770733793785</v>
+        <v>0.0296992166581076</v>
       </c>
       <c r="H34" t="n">
         <v>0.250163274305711</v>
@@ -3259,7 +3259,7 @@
         <v>0.00424</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0296770733793785</v>
+        <v>0.0296992166581076</v>
       </c>
       <c r="H35" t="n">
         <v>0.250163274305711</v>
@@ -3498,7 +3498,7 @@
         <v>0.291</v>
       </c>
       <c r="G38" t="n">
-        <v>0.33563829787234</v>
+        <v>0.335612765957447</v>
       </c>
       <c r="H38" t="n">
         <v>1.295</v>
@@ -3509,7 +3509,7 @@
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
-        <v>0.287</v>
+        <v>0.2865</v>
       </c>
       <c r="M38" t="n">
         <v>0.46326</v>
@@ -3575,7 +3575,7 @@
         <v>0.291</v>
       </c>
       <c r="G39" t="n">
-        <v>0.33563829787234</v>
+        <v>0.335612765957447</v>
       </c>
       <c r="H39" t="n">
         <v>1.295</v>
@@ -3586,7 +3586,7 @@
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
-        <v>0.287</v>
+        <v>0.2865</v>
       </c>
       <c r="M39" t="n">
         <v>0.46326</v>
@@ -4207,7 +4207,7 @@
         <v>15</v>
       </c>
       <c r="G47" t="n">
-        <v>232.255487756968</v>
+        <v>232.255510046395</v>
       </c>
       <c r="H47" t="n">
         <v>2400</v>
@@ -4292,7 +4292,7 @@
         <v>15</v>
       </c>
       <c r="G48" t="n">
-        <v>232.255487756968</v>
+        <v>232.255510046395</v>
       </c>
       <c r="H48" t="n">
         <v>2400</v>
@@ -4377,7 +4377,7 @@
         <v>15</v>
       </c>
       <c r="G49" t="n">
-        <v>232.255487756968</v>
+        <v>232.255510046395</v>
       </c>
       <c r="H49" t="n">
         <v>2400</v>
@@ -4462,7 +4462,7 @@
         <v>15</v>
       </c>
       <c r="G50" t="n">
-        <v>232.255487756968</v>
+        <v>232.255510046395</v>
       </c>
       <c r="H50" t="n">
         <v>2400</v>
@@ -4547,7 +4547,7 @@
         <v>0.00219</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0221729258665488</v>
+        <v>0.0221916062925402</v>
       </c>
       <c r="H51" t="n">
         <v>0.225791661230795</v>
@@ -4628,7 +4628,7 @@
         <v>0.00219</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0221729258665488</v>
+        <v>0.0221916062925402</v>
       </c>
       <c r="H52" t="n">
         <v>0.225791661230795</v>
@@ -4864,10 +4864,10 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>0.2765</v>
+        <v>0.2764</v>
       </c>
       <c r="G55" t="n">
-        <v>0.294416666666667</v>
+        <v>0.294397916666667</v>
       </c>
       <c r="H55" t="n">
         <v>0.6850000000000001</v>
@@ -4941,10 +4941,10 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>0.2765</v>
+        <v>0.2764</v>
       </c>
       <c r="G56" t="n">
-        <v>0.294416666666667</v>
+        <v>0.294397916666667</v>
       </c>
       <c r="H56" t="n">
         <v>0.6850000000000001</v>
@@ -5657,7 +5657,7 @@
         <v>21</v>
       </c>
       <c r="G65" t="n">
-        <v>166.530937058499</v>
+        <v>166.530955828544</v>
       </c>
       <c r="H65" t="n">
         <v>2400</v>
@@ -5742,7 +5742,7 @@
         <v>21</v>
       </c>
       <c r="G66" t="n">
-        <v>166.530937058499</v>
+        <v>166.530955828544</v>
       </c>
       <c r="H66" t="n">
         <v>2400</v>
@@ -5827,7 +5827,7 @@
         <v>21</v>
       </c>
       <c r="G67" t="n">
-        <v>166.530937058499</v>
+        <v>166.530955828544</v>
       </c>
       <c r="H67" t="n">
         <v>2400</v>
@@ -5912,7 +5912,7 @@
         <v>21</v>
       </c>
       <c r="G68" t="n">
-        <v>166.530937058499</v>
+        <v>166.530955828544</v>
       </c>
       <c r="H68" t="n">
         <v>2400</v>
@@ -5997,7 +5997,7 @@
         <v>0.00143</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0178586553714868</v>
+        <v>0.0178899239028015</v>
       </c>
       <c r="H69" t="n">
         <v>0.225791661230795</v>
@@ -6008,7 +6008,7 @@
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
-        <v>0.00075</v>
+        <v>0.0008899999999999999</v>
       </c>
       <c r="M69" t="n">
         <v>0.02102</v>
@@ -6078,7 +6078,7 @@
         <v>0.00143</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0178586553714868</v>
+        <v>0.0178899239028015</v>
       </c>
       <c r="H70" t="n">
         <v>0.225791661230795</v>
@@ -6089,7 +6089,7 @@
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
-        <v>0.00075</v>
+        <v>0.0008899999999999999</v>
       </c>
       <c r="M70" t="n">
         <v>0.02102</v>
@@ -6317,7 +6317,7 @@
         <v>0.271</v>
       </c>
       <c r="G73" t="n">
-        <v>0.272228070175439</v>
+        <v>0.272221052631579</v>
       </c>
       <c r="H73" t="n">
         <v>0.6850000000000001</v>
@@ -6328,7 +6328,7 @@
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
-        <v>0.269</v>
+        <v>0.2689</v>
       </c>
       <c r="M73" t="n">
         <v>0.345</v>
@@ -6394,7 +6394,7 @@
         <v>0.271</v>
       </c>
       <c r="G74" t="n">
-        <v>0.272228070175439</v>
+        <v>0.272221052631579</v>
       </c>
       <c r="H74" t="n">
         <v>0.6850000000000001</v>
@@ -6405,7 +6405,7 @@
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
-        <v>0.269</v>
+        <v>0.2689</v>
       </c>
       <c r="M74" t="n">
         <v>0.345</v>
@@ -7107,7 +7107,7 @@
         <v>21</v>
       </c>
       <c r="G83" t="n">
-        <v>138.870953831953</v>
+        <v>138.870390698971</v>
       </c>
       <c r="H83" t="n">
         <v>2400</v>
@@ -7192,7 +7192,7 @@
         <v>21</v>
       </c>
       <c r="G84" t="n">
-        <v>138.870953831953</v>
+        <v>138.870390698971</v>
       </c>
       <c r="H84" t="n">
         <v>2400</v>
@@ -7277,7 +7277,7 @@
         <v>21</v>
       </c>
       <c r="G85" t="n">
-        <v>138.870953831953</v>
+        <v>138.870390698971</v>
       </c>
       <c r="H85" t="n">
         <v>2400</v>
@@ -7362,7 +7362,7 @@
         <v>21</v>
       </c>
       <c r="G86" t="n">
-        <v>138.870953831953</v>
+        <v>138.870390698971</v>
       </c>
       <c r="H86" t="n">
         <v>2400</v>
@@ -7444,10 +7444,10 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.00142</v>
+        <v>0.0016</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0151403685828399</v>
+        <v>0.0152127100486426</v>
       </c>
       <c r="H87" t="n">
         <v>0.225791661230795</v>
@@ -7458,7 +7458,7 @@
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
-        <v>0.00075</v>
+        <v>0.0008899999999999999</v>
       </c>
       <c r="M87" t="n">
         <v>0.0073</v>
@@ -7525,10 +7525,10 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>0.00142</v>
+        <v>0.0016</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0151403685828399</v>
+        <v>0.0152127100486426</v>
       </c>
       <c r="H88" t="n">
         <v>0.225791661230795</v>
@@ -7539,7 +7539,7 @@
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
-        <v>0.00075</v>
+        <v>0.0008899999999999999</v>
       </c>
       <c r="M88" t="n">
         <v>0.0073</v>
@@ -7767,7 +7767,7 @@
         <v>0.265</v>
       </c>
       <c r="G91" t="n">
-        <v>0.261035087719298</v>
+        <v>0.261028070175439</v>
       </c>
       <c r="H91" t="n">
         <v>0.61</v>
@@ -7844,7 +7844,7 @@
         <v>0.265</v>
       </c>
       <c r="G92" t="n">
-        <v>0.261035087719298</v>
+        <v>0.261028070175439</v>
       </c>
       <c r="H92" t="n">
         <v>0.61</v>
@@ -8314,24 +8314,24 @@
         <v>1.63</v>
       </c>
       <c r="G98" t="n">
-        <v>1.65687962629388</v>
+        <v>1.74667362404314</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>4.53997938069665</v>
       </c>
       <c r="I98" t="n">
-        <v>2.83298</v>
+        <v>3.02265</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
-        <v>1.93149</v>
+        <v>2.06</v>
       </c>
       <c r="M98" t="n">
-        <v>2.179</v>
+        <v>2.29121</v>
       </c>
       <c r="N98" t="n">
-        <v>2.42974</v>
+        <v>2.78924</v>
       </c>
       <c r="O98" t="n">
         <v>1828759</v>
@@ -8557,7 +8557,7 @@
         <v>18.5</v>
       </c>
       <c r="G101" t="n">
-        <v>91.88980405061579</v>
+        <v>91.8882718788543</v>
       </c>
       <c r="H101" t="n">
         <v>2400</v>
@@ -8642,7 +8642,7 @@
         <v>18.5</v>
       </c>
       <c r="G102" t="n">
-        <v>91.88980405061579</v>
+        <v>91.8882718788543</v>
       </c>
       <c r="H102" t="n">
         <v>2400</v>
@@ -8727,7 +8727,7 @@
         <v>18.5</v>
       </c>
       <c r="G103" t="n">
-        <v>91.88980405061579</v>
+        <v>91.8882718788543</v>
       </c>
       <c r="H103" t="n">
         <v>2400</v>
@@ -8812,7 +8812,7 @@
         <v>18.5</v>
       </c>
       <c r="G104" t="n">
-        <v>91.88980405061579</v>
+        <v>91.8882718788543</v>
       </c>
       <c r="H104" t="n">
         <v>2400</v>
@@ -8894,10 +8894,10 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>0.00143</v>
+        <v>0.00162</v>
       </c>
       <c r="G105" t="n">
-        <v>0.0069154791377582</v>
+        <v>0.0070170100897507</v>
       </c>
       <c r="H105" t="n">
         <v>0.149691429896627</v>
@@ -8908,10 +8908,10 @@
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
-        <v>0.00105</v>
+        <v>0.00116</v>
       </c>
       <c r="M105" t="n">
-        <v>0.00264</v>
+        <v>0.00283</v>
       </c>
       <c r="N105" t="n">
         <v>0.00805</v>
@@ -8975,10 +8975,10 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>0.00143</v>
+        <v>0.00162</v>
       </c>
       <c r="G106" t="n">
-        <v>0.0069154791377582</v>
+        <v>0.0070170100897507</v>
       </c>
       <c r="H106" t="n">
         <v>0.149691429896627</v>
@@ -8989,10 +8989,10 @@
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
-        <v>0.00105</v>
+        <v>0.00116</v>
       </c>
       <c r="M106" t="n">
-        <v>0.00264</v>
+        <v>0.00283</v>
       </c>
       <c r="N106" t="n">
         <v>0.00805</v>
@@ -9217,7 +9217,7 @@
         <v>0.23</v>
       </c>
       <c r="G109" t="n">
-        <v>0.239483333333333</v>
+        <v>0.239476666666667</v>
       </c>
       <c r="H109" t="n">
         <v>0.545</v>
@@ -9231,7 +9231,7 @@
         <v>0.255</v>
       </c>
       <c r="M109" t="n">
-        <v>0.321</v>
+        <v>0.32109</v>
       </c>
       <c r="N109" t="n">
         <v>0.345</v>
@@ -9294,7 +9294,7 @@
         <v>0.23</v>
       </c>
       <c r="G110" t="n">
-        <v>0.239483333333333</v>
+        <v>0.239476666666667</v>
       </c>
       <c r="H110" t="n">
         <v>0.545</v>
@@ -9308,7 +9308,7 @@
         <v>0.255</v>
       </c>
       <c r="M110" t="n">
-        <v>0.321</v>
+        <v>0.32109</v>
       </c>
       <c r="N110" t="n">
         <v>0.345</v>
@@ -9764,24 +9764,24 @@
         <v>1.6</v>
       </c>
       <c r="G116" t="n">
-        <v>1.50882091879202</v>
+        <v>1.59479389536045</v>
       </c>
       <c r="H116" t="n">
-        <v>3</v>
+        <v>4.53997938069665</v>
       </c>
       <c r="I116" t="n">
-        <v>2.82379</v>
+        <v>3.01359</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
-        <v>1.87075</v>
+        <v>1.935</v>
       </c>
       <c r="M116" t="n">
-        <v>2.1314</v>
+        <v>2.2713</v>
       </c>
       <c r="N116" t="n">
-        <v>2.41332</v>
+        <v>2.75603</v>
       </c>
       <c r="O116" t="n">
         <v>1828759</v>
@@ -10007,7 +10007,7 @@
         <v>18.5</v>
       </c>
       <c r="G119" t="n">
-        <v>44.8908464780768</v>
+        <v>44.8885874653159</v>
       </c>
       <c r="H119" t="n">
         <v>593</v>
@@ -10092,7 +10092,7 @@
         <v>18.5</v>
       </c>
       <c r="G120" t="n">
-        <v>44.8908464780768</v>
+        <v>44.8885874653159</v>
       </c>
       <c r="H120" t="n">
         <v>593</v>
@@ -10177,7 +10177,7 @@
         <v>18.5</v>
       </c>
       <c r="G121" t="n">
-        <v>44.8908464780768</v>
+        <v>44.8885874653159</v>
       </c>
       <c r="H121" t="n">
         <v>593</v>
@@ -10262,7 +10262,7 @@
         <v>18.5</v>
       </c>
       <c r="G122" t="n">
-        <v>44.8908464780768</v>
+        <v>44.8885874653159</v>
       </c>
       <c r="H122" t="n">
         <v>593</v>
@@ -10344,10 +10344,10 @@
         </is>
       </c>
       <c r="F123" t="n">
-        <v>0.00161</v>
+        <v>0.00183</v>
       </c>
       <c r="G123" t="n">
-        <v>0.0019576511073922</v>
+        <v>0.0020972712888398</v>
       </c>
       <c r="H123" t="n">
         <v>0.0119705342768616</v>
@@ -10358,13 +10358,13 @@
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
-        <v>0.00154</v>
+        <v>0.00178</v>
       </c>
       <c r="M123" t="n">
-        <v>0.00251</v>
+        <v>0.0027</v>
       </c>
       <c r="N123" t="n">
-        <v>0.00297</v>
+        <v>0.0033</v>
       </c>
       <c r="O123" t="n">
         <v>1828759</v>
@@ -10425,10 +10425,10 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>0.00161</v>
+        <v>0.00183</v>
       </c>
       <c r="G124" t="n">
-        <v>0.0019576511073922</v>
+        <v>0.0020972712888398</v>
       </c>
       <c r="H124" t="n">
         <v>0.0119705342768616</v>
@@ -10439,13 +10439,13 @@
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
-        <v>0.00154</v>
+        <v>0.00178</v>
       </c>
       <c r="M124" t="n">
-        <v>0.00251</v>
+        <v>0.0027</v>
       </c>
       <c r="N124" t="n">
-        <v>0.00297</v>
+        <v>0.0033</v>
       </c>
       <c r="O124" t="n">
         <v>1828759</v>
@@ -10667,7 +10667,7 @@
         <v>0.23</v>
       </c>
       <c r="G127" t="n">
-        <v>0.231616666666667</v>
+        <v>0.231603333333333</v>
       </c>
       <c r="H127" t="n">
         <v>0.545</v>
@@ -10681,7 +10681,7 @@
         <v>0.265</v>
       </c>
       <c r="M127" t="n">
-        <v>0.3005</v>
+        <v>0.30062</v>
       </c>
       <c r="N127" t="n">
         <v>0.342</v>
@@ -10744,7 +10744,7 @@
         <v>0.23</v>
       </c>
       <c r="G128" t="n">
-        <v>0.231616666666667</v>
+        <v>0.231603333333333</v>
       </c>
       <c r="H128" t="n">
         <v>0.545</v>
@@ -10758,7 +10758,7 @@
         <v>0.265</v>
       </c>
       <c r="M128" t="n">
-        <v>0.3005</v>
+        <v>0.30062</v>
       </c>
       <c r="N128" t="n">
         <v>0.342</v>
@@ -11214,24 +11214,24 @@
         <v>1.55</v>
       </c>
       <c r="G134" t="n">
-        <v>1.53354166271644</v>
+        <v>1.63987666005109</v>
       </c>
       <c r="H134" t="n">
-        <v>3</v>
+        <v>4.53997938069665</v>
       </c>
       <c r="I134" t="n">
-        <v>2.86515</v>
+        <v>3.05437</v>
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
-        <v>2.06</v>
+        <v>2.2</v>
       </c>
       <c r="M134" t="n">
-        <v>2.3</v>
+        <v>2.3056</v>
       </c>
       <c r="N134" t="n">
-        <v>2.6102</v>
+        <v>2.8974</v>
       </c>
       <c r="O134" t="n">
         <v>1828759</v>
@@ -11457,7 +11457,7 @@
         <v>16</v>
       </c>
       <c r="G137" t="n">
-        <v>25.8326752364365</v>
+        <v>25.8284502156235</v>
       </c>
       <c r="H137" t="n">
         <v>162</v>
@@ -11542,7 +11542,7 @@
         <v>16</v>
       </c>
       <c r="G138" t="n">
-        <v>25.8326752364365</v>
+        <v>25.8284502156235</v>
       </c>
       <c r="H138" t="n">
         <v>162</v>
@@ -11627,7 +11627,7 @@
         <v>16</v>
       </c>
       <c r="G139" t="n">
-        <v>25.8326752364365</v>
+        <v>25.8284502156235</v>
       </c>
       <c r="H139" t="n">
         <v>162</v>
@@ -11712,7 +11712,7 @@
         <v>16</v>
       </c>
       <c r="G140" t="n">
-        <v>25.8326752364365</v>
+        <v>25.8284502156235</v>
       </c>
       <c r="H140" t="n">
         <v>162</v>
@@ -11794,27 +11794,27 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>0.00185</v>
+        <v>0.00203</v>
       </c>
       <c r="G141" t="n">
-        <v>0.0022529828301215</v>
+        <v>0.0024395163254246</v>
       </c>
       <c r="H141" t="n">
         <v>0.0119705342768616</v>
       </c>
       <c r="I141" t="n">
-        <v>0.00484</v>
+        <v>0.00517</v>
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
-        <v>0.00226</v>
+        <v>0.0023</v>
       </c>
       <c r="M141" t="n">
-        <v>0.00342</v>
+        <v>0.0035</v>
       </c>
       <c r="N141" t="n">
-        <v>0.00423</v>
+        <v>0.00445</v>
       </c>
       <c r="O141" t="n">
         <v>1828759</v>
@@ -11875,27 +11875,27 @@
         </is>
       </c>
       <c r="F142" t="n">
-        <v>0.00185</v>
+        <v>0.00203</v>
       </c>
       <c r="G142" t="n">
-        <v>0.0022529828301215</v>
+        <v>0.0024395163254246</v>
       </c>
       <c r="H142" t="n">
         <v>0.0119705342768616</v>
       </c>
       <c r="I142" t="n">
-        <v>0.00484</v>
+        <v>0.00517</v>
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
-        <v>0.00226</v>
+        <v>0.0023</v>
       </c>
       <c r="M142" t="n">
-        <v>0.00342</v>
+        <v>0.0035</v>
       </c>
       <c r="N142" t="n">
-        <v>0.00423</v>
+        <v>0.00445</v>
       </c>
       <c r="O142" t="n">
         <v>1828759</v>
@@ -12117,7 +12117,7 @@
         <v>0.24</v>
       </c>
       <c r="G145" t="n">
-        <v>0.239533333333333</v>
+        <v>0.23954</v>
       </c>
       <c r="H145" t="n">
         <v>0.545</v>
@@ -12194,7 +12194,7 @@
         <v>0.24</v>
       </c>
       <c r="G146" t="n">
-        <v>0.239533333333333</v>
+        <v>0.23954</v>
       </c>
       <c r="H146" t="n">
         <v>0.545</v>
@@ -12826,7 +12826,7 @@
         <v>14</v>
       </c>
       <c r="G154" t="n">
-        <v>20.1378033726589</v>
+        <v>20.1306157576893</v>
       </c>
       <c r="H154" t="n">
         <v>96</v>
@@ -12911,7 +12911,7 @@
         <v>14</v>
       </c>
       <c r="G155" t="n">
-        <v>20.1378033726589</v>
+        <v>20.1306157576893</v>
       </c>
       <c r="H155" t="n">
         <v>96</v>
@@ -12996,7 +12996,7 @@
         <v>14</v>
       </c>
       <c r="G156" t="n">
-        <v>20.1378033726589</v>
+        <v>20.1306157576893</v>
       </c>
       <c r="H156" t="n">
         <v>96</v>
@@ -13081,7 +13081,7 @@
         <v>14</v>
       </c>
       <c r="G157" t="n">
-        <v>20.1378033726589</v>
+        <v>20.1306157576893</v>
       </c>
       <c r="H157" t="n">
         <v>96</v>
@@ -13163,27 +13163,27 @@
         </is>
       </c>
       <c r="F158" t="n">
-        <v>0.00196</v>
+        <v>0.00219</v>
       </c>
       <c r="G158" t="n">
-        <v>0.0022350329775404</v>
+        <v>0.0024185709048658</v>
       </c>
       <c r="H158" t="n">
-        <v>0.0056073300999227</v>
+        <v>0.0059800381792088</v>
       </c>
       <c r="I158" t="n">
-        <v>0.00435</v>
+        <v>0.0046</v>
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
-        <v>0.00226</v>
+        <v>0.00245</v>
       </c>
       <c r="M158" t="n">
-        <v>0.0035</v>
+        <v>0.00359</v>
       </c>
       <c r="N158" t="n">
-        <v>0.00413</v>
+        <v>0.00435</v>
       </c>
       <c r="O158" t="n">
         <v>1828759</v>
@@ -13244,27 +13244,27 @@
         </is>
       </c>
       <c r="F159" t="n">
-        <v>0.00196</v>
+        <v>0.00219</v>
       </c>
       <c r="G159" t="n">
-        <v>0.0022350329775404</v>
+        <v>0.0024185709048658</v>
       </c>
       <c r="H159" t="n">
-        <v>0.0056073300999227</v>
+        <v>0.0059800381792088</v>
       </c>
       <c r="I159" t="n">
-        <v>0.00435</v>
+        <v>0.0046</v>
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
-        <v>0.00226</v>
+        <v>0.00245</v>
       </c>
       <c r="M159" t="n">
-        <v>0.0035</v>
+        <v>0.00359</v>
       </c>
       <c r="N159" t="n">
-        <v>0.00413</v>
+        <v>0.00435</v>
       </c>
       <c r="O159" t="n">
         <v>1828759</v>
@@ -13486,7 +13486,7 @@
         <v>0.255</v>
       </c>
       <c r="G162" t="n">
-        <v>0.246327586206897</v>
+        <v>0.246336206896552</v>
       </c>
       <c r="H162" t="n">
         <v>0.545</v>
@@ -13563,7 +13563,7 @@
         <v>0.255</v>
       </c>
       <c r="G163" t="n">
-        <v>0.246327586206897</v>
+        <v>0.246336206896552</v>
       </c>
       <c r="H163" t="n">
         <v>0.545</v>
@@ -14195,7 +14195,7 @@
         <v>14</v>
       </c>
       <c r="G171" t="n">
-        <v>20.4149097226006</v>
+        <v>20.4065444334318</v>
       </c>
       <c r="H171" t="n">
         <v>96</v>
@@ -14280,7 +14280,7 @@
         <v>14</v>
       </c>
       <c r="G172" t="n">
-        <v>20.4149097226006</v>
+        <v>20.4065444334318</v>
       </c>
       <c r="H172" t="n">
         <v>96</v>
@@ -14365,7 +14365,7 @@
         <v>14</v>
       </c>
       <c r="G173" t="n">
-        <v>20.4149097226006</v>
+        <v>20.4065444334318</v>
       </c>
       <c r="H173" t="n">
         <v>96</v>
@@ -14450,7 +14450,7 @@
         <v>14</v>
       </c>
       <c r="G174" t="n">
-        <v>20.4149097226006</v>
+        <v>20.4065444334318</v>
       </c>
       <c r="H174" t="n">
         <v>96</v>
@@ -14532,27 +14532,27 @@
         </is>
       </c>
       <c r="F175" t="n">
-        <v>0.00222</v>
+        <v>0.00242</v>
       </c>
       <c r="G175" t="n">
-        <v>0.0025495627661001</v>
+        <v>0.002678699810405</v>
       </c>
       <c r="H175" t="n">
         <v>0.0119176183509407</v>
       </c>
       <c r="I175" t="n">
-        <v>0.00523</v>
+        <v>0.00528</v>
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
-        <v>0.00238</v>
+        <v>0.00258</v>
       </c>
       <c r="M175" t="n">
         <v>0.00394</v>
       </c>
       <c r="N175" t="n">
-        <v>0.00463</v>
+        <v>0.0049</v>
       </c>
       <c r="O175" t="n">
         <v>1828759</v>
@@ -14613,27 +14613,27 @@
         </is>
       </c>
       <c r="F176" t="n">
-        <v>0.00222</v>
+        <v>0.00242</v>
       </c>
       <c r="G176" t="n">
-        <v>0.0025495627661001</v>
+        <v>0.002678699810405</v>
       </c>
       <c r="H176" t="n">
         <v>0.0119176183509407</v>
       </c>
       <c r="I176" t="n">
-        <v>0.00523</v>
+        <v>0.00528</v>
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
-        <v>0.00238</v>
+        <v>0.00258</v>
       </c>
       <c r="M176" t="n">
         <v>0.00394</v>
       </c>
       <c r="N176" t="n">
-        <v>0.00463</v>
+        <v>0.0049</v>
       </c>
       <c r="O176" t="n">
         <v>1828759</v>
@@ -14855,7 +14855,7 @@
         <v>0.2555</v>
       </c>
       <c r="G179" t="n">
-        <v>0.253758620689655</v>
+        <v>0.25375</v>
       </c>
       <c r="H179" t="n">
         <v>0.386</v>
@@ -14866,10 +14866,10 @@
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
-        <v>0.298</v>
+        <v>0.29775</v>
       </c>
       <c r="M179" t="n">
-        <v>0.33356</v>
+        <v>0.33338</v>
       </c>
       <c r="N179" t="n">
         <v>0.345</v>
@@ -14932,7 +14932,7 @@
         <v>0.2555</v>
       </c>
       <c r="G180" t="n">
-        <v>0.253758620689655</v>
+        <v>0.25375</v>
       </c>
       <c r="H180" t="n">
         <v>0.386</v>
@@ -14943,10 +14943,10 @@
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
-        <v>0.298</v>
+        <v>0.29775</v>
       </c>
       <c r="M180" t="n">
-        <v>0.33356</v>
+        <v>0.33338</v>
       </c>
       <c r="N180" t="n">
         <v>0.345</v>
@@ -15564,7 +15564,7 @@
         <v>12</v>
       </c>
       <c r="G188" t="n">
-        <v>29.5917394706068</v>
+        <v>29.5844057629164</v>
       </c>
       <c r="H188" t="n">
         <v>580</v>
@@ -15649,7 +15649,7 @@
         <v>12</v>
       </c>
       <c r="G189" t="n">
-        <v>29.5917394706068</v>
+        <v>29.5844057629164</v>
       </c>
       <c r="H189" t="n">
         <v>580</v>
@@ -15734,7 +15734,7 @@
         <v>12</v>
       </c>
       <c r="G190" t="n">
-        <v>29.5917394706068</v>
+        <v>29.5844057629164</v>
       </c>
       <c r="H190" t="n">
         <v>580</v>
@@ -15819,7 +15819,7 @@
         <v>12</v>
       </c>
       <c r="G191" t="n">
-        <v>29.5917394706068</v>
+        <v>29.5844057629164</v>
       </c>
       <c r="H191" t="n">
         <v>580</v>
@@ -15901,10 +15901,10 @@
         </is>
       </c>
       <c r="F192" t="n">
-        <v>0.00269</v>
+        <v>0.00282</v>
       </c>
       <c r="G192" t="n">
-        <v>0.0032171797589569</v>
+        <v>0.0032997365282071</v>
       </c>
       <c r="H192" t="n">
         <v>0.0215179639296374</v>
@@ -15915,13 +15915,13 @@
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
-        <v>0.00274</v>
+        <v>0.0028</v>
       </c>
       <c r="M192" t="n">
-        <v>0.00432</v>
+        <v>0.00456</v>
       </c>
       <c r="N192" t="n">
-        <v>0.00576</v>
+        <v>0.00595</v>
       </c>
       <c r="O192" t="n">
         <v>1828759</v>
@@ -15982,10 +15982,10 @@
         </is>
       </c>
       <c r="F193" t="n">
-        <v>0.00269</v>
+        <v>0.00282</v>
       </c>
       <c r="G193" t="n">
-        <v>0.0032171797589569</v>
+        <v>0.0032997365282071</v>
       </c>
       <c r="H193" t="n">
         <v>0.0215179639296374</v>
@@ -15996,13 +15996,13 @@
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
-        <v>0.00274</v>
+        <v>0.0028</v>
       </c>
       <c r="M193" t="n">
-        <v>0.00432</v>
+        <v>0.00456</v>
       </c>
       <c r="N193" t="n">
-        <v>0.00576</v>
+        <v>0.00595</v>
       </c>
       <c r="O193" t="n">
         <v>1828759</v>
@@ -16224,13 +16224,13 @@
         <v>0.256</v>
       </c>
       <c r="G196" t="n">
-        <v>0.258965517241379</v>
+        <v>0.258956896551724</v>
       </c>
       <c r="H196" t="n">
         <v>0.413</v>
       </c>
       <c r="I196" t="n">
-        <v>0.368</v>
+        <v>0.3683</v>
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
@@ -16301,13 +16301,13 @@
         <v>0.256</v>
       </c>
       <c r="G197" t="n">
-        <v>0.258965517241379</v>
+        <v>0.258956896551724</v>
       </c>
       <c r="H197" t="n">
         <v>0.413</v>
       </c>
       <c r="I197" t="n">
-        <v>0.368</v>
+        <v>0.3683</v>
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
@@ -16660,6 +16660,1375 @@
         </is>
       </c>
     </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Waitangi at u/s Waiouru STP</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Chlorophyll A (83rd Percentile)</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F202" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="G202" t="n">
+        <v>24.1927966101695</v>
+      </c>
+      <c r="H202" t="n">
+        <v>110</v>
+      </c>
+      <c r="I202" t="n">
+        <v>72.75</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>20.75</v>
+      </c>
+      <c r="M202" t="n">
+        <v>41.645</v>
+      </c>
+      <c r="N202" t="n">
+        <v>68.90000000000001</v>
+      </c>
+      <c r="O202" t="n">
+        <v>1828759</v>
+      </c>
+      <c r="P202" t="n">
+        <v>5628633</v>
+      </c>
+      <c r="Q202" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R202" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S202" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T202" t="inlineStr">
+        <is>
+          <t>Whau_1b</t>
+        </is>
+      </c>
+      <c r="U202" t="inlineStr">
+        <is>
+          <t>mg chl-a /m2</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Waitangi at u/s Waiouru STP</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F203" t="n">
+        <v>0.0275</v>
+      </c>
+      <c r="G203" t="n">
+        <v>0.0304655172413793</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0.061</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0.0568</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>0.0265</v>
+      </c>
+      <c r="M203" t="n">
+        <v>0.04564</v>
+      </c>
+      <c r="N203" t="n">
+        <v>0.051</v>
+      </c>
+      <c r="O203" t="n">
+        <v>1828759</v>
+      </c>
+      <c r="P203" t="n">
+        <v>5628633</v>
+      </c>
+      <c r="Q203" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R203" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S203" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T203" t="inlineStr">
+        <is>
+          <t>Whau_1b</t>
+        </is>
+      </c>
+      <c r="U203" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Waitangi at u/s Waiouru STP</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F204" t="n">
+        <v>0.0275</v>
+      </c>
+      <c r="G204" t="n">
+        <v>0.0304655172413793</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0.061</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0.0568</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>0.0265</v>
+      </c>
+      <c r="M204" t="n">
+        <v>0.04564</v>
+      </c>
+      <c r="N204" t="n">
+        <v>0.051</v>
+      </c>
+      <c r="O204" t="n">
+        <v>1828759</v>
+      </c>
+      <c r="P204" t="n">
+        <v>5628633</v>
+      </c>
+      <c r="Q204" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R204" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S204" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T204" t="inlineStr">
+        <is>
+          <t>Whau_1b</t>
+        </is>
+      </c>
+      <c r="U204" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Waitangi at u/s Waiouru STP</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F205" t="n">
+        <v>12</v>
+      </c>
+      <c r="G205" t="n">
+        <v>28.510618797102</v>
+      </c>
+      <c r="H205" t="n">
+        <v>580</v>
+      </c>
+      <c r="I205" t="n">
+        <v>60.6</v>
+      </c>
+      <c r="J205" t="n">
+        <v>1.72413793103448</v>
+      </c>
+      <c r="K205" t="n">
+        <v>1.72413793103448</v>
+      </c>
+      <c r="L205" t="n">
+        <v>30</v>
+      </c>
+      <c r="M205" t="n">
+        <v>36.56</v>
+      </c>
+      <c r="N205" t="n">
+        <v>44</v>
+      </c>
+      <c r="O205" t="n">
+        <v>1828759</v>
+      </c>
+      <c r="P205" t="n">
+        <v>5628633</v>
+      </c>
+      <c r="Q205" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R205" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S205" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T205" t="inlineStr">
+        <is>
+          <t>Whau_1b</t>
+        </is>
+      </c>
+      <c r="U205" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Waitangi at u/s Waiouru STP</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F206" t="n">
+        <v>12</v>
+      </c>
+      <c r="G206" t="n">
+        <v>28.510618797102</v>
+      </c>
+      <c r="H206" t="n">
+        <v>580</v>
+      </c>
+      <c r="I206" t="n">
+        <v>60.6</v>
+      </c>
+      <c r="J206" t="n">
+        <v>1.72413793103448</v>
+      </c>
+      <c r="K206" t="n">
+        <v>1.72413793103448</v>
+      </c>
+      <c r="L206" t="n">
+        <v>30</v>
+      </c>
+      <c r="M206" t="n">
+        <v>36.56</v>
+      </c>
+      <c r="N206" t="n">
+        <v>44</v>
+      </c>
+      <c r="O206" t="n">
+        <v>1828759</v>
+      </c>
+      <c r="P206" t="n">
+        <v>5628633</v>
+      </c>
+      <c r="Q206" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R206" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S206" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T206" t="inlineStr">
+        <is>
+          <t>Whau_1b</t>
+        </is>
+      </c>
+      <c r="U206" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Waitangi at u/s Waiouru STP</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F207" t="n">
+        <v>12</v>
+      </c>
+      <c r="G207" t="n">
+        <v>28.510618797102</v>
+      </c>
+      <c r="H207" t="n">
+        <v>580</v>
+      </c>
+      <c r="I207" t="n">
+        <v>60.6</v>
+      </c>
+      <c r="J207" t="n">
+        <v>1.72413793103448</v>
+      </c>
+      <c r="K207" t="n">
+        <v>1.72413793103448</v>
+      </c>
+      <c r="L207" t="n">
+        <v>30</v>
+      </c>
+      <c r="M207" t="n">
+        <v>36.56</v>
+      </c>
+      <c r="N207" t="n">
+        <v>44</v>
+      </c>
+      <c r="O207" t="n">
+        <v>1828759</v>
+      </c>
+      <c r="P207" t="n">
+        <v>5628633</v>
+      </c>
+      <c r="Q207" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R207" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S207" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T207" t="inlineStr">
+        <is>
+          <t>Whau_1b</t>
+        </is>
+      </c>
+      <c r="U207" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Waitangi at u/s Waiouru STP</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F208" t="n">
+        <v>12</v>
+      </c>
+      <c r="G208" t="n">
+        <v>28.510618797102</v>
+      </c>
+      <c r="H208" t="n">
+        <v>580</v>
+      </c>
+      <c r="I208" t="n">
+        <v>60.6</v>
+      </c>
+      <c r="J208" t="n">
+        <v>1.72413793103448</v>
+      </c>
+      <c r="K208" t="n">
+        <v>1.72413793103448</v>
+      </c>
+      <c r="L208" t="n">
+        <v>30</v>
+      </c>
+      <c r="M208" t="n">
+        <v>36.56</v>
+      </c>
+      <c r="N208" t="n">
+        <v>44</v>
+      </c>
+      <c r="O208" t="n">
+        <v>1828759</v>
+      </c>
+      <c r="P208" t="n">
+        <v>5628633</v>
+      </c>
+      <c r="Q208" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R208" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S208" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T208" t="inlineStr">
+        <is>
+          <t>Whau_1b</t>
+        </is>
+      </c>
+      <c r="U208" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Waitangi at u/s Waiouru STP</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F209" t="n">
+        <v>0.00308</v>
+      </c>
+      <c r="G209" t="n">
+        <v>0.003511257259841</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0.0215179639296374</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0.00736</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>0.00329</v>
+      </c>
+      <c r="M209" t="n">
+        <v>0.0051</v>
+      </c>
+      <c r="N209" t="n">
+        <v>0.00602</v>
+      </c>
+      <c r="O209" t="n">
+        <v>1828759</v>
+      </c>
+      <c r="P209" t="n">
+        <v>5628633</v>
+      </c>
+      <c r="Q209" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R209" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S209" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T209" t="inlineStr">
+        <is>
+          <t>Whau_1b</t>
+        </is>
+      </c>
+      <c r="U209" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Waitangi at u/s Waiouru STP</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F210" t="n">
+        <v>0.00308</v>
+      </c>
+      <c r="G210" t="n">
+        <v>0.003511257259841</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0.0215179639296374</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0.00736</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>0.00329</v>
+      </c>
+      <c r="M210" t="n">
+        <v>0.0051</v>
+      </c>
+      <c r="N210" t="n">
+        <v>0.00602</v>
+      </c>
+      <c r="O210" t="n">
+        <v>1828759</v>
+      </c>
+      <c r="P210" t="n">
+        <v>5628633</v>
+      </c>
+      <c r="Q210" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R210" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S210" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T210" t="inlineStr">
+        <is>
+          <t>Whau_1b</t>
+        </is>
+      </c>
+      <c r="U210" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Waitangi at u/s Waiouru STP</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F211" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="G211" t="n">
+        <v>0.249827586206897</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0.3632</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>0.2895</v>
+      </c>
+      <c r="M211" t="n">
+        <v>0.32756</v>
+      </c>
+      <c r="N211" t="n">
+        <v>0.3403</v>
+      </c>
+      <c r="O211" t="n">
+        <v>1828759</v>
+      </c>
+      <c r="P211" t="n">
+        <v>5628633</v>
+      </c>
+      <c r="Q211" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R211" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S211" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T211" t="inlineStr">
+        <is>
+          <t>Whau_1b</t>
+        </is>
+      </c>
+      <c r="U211" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Waitangi at u/s Waiouru STP</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F212" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="G212" t="n">
+        <v>0.249827586206897</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0.3632</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>0.2895</v>
+      </c>
+      <c r="M212" t="n">
+        <v>0.32756</v>
+      </c>
+      <c r="N212" t="n">
+        <v>0.3403</v>
+      </c>
+      <c r="O212" t="n">
+        <v>1828759</v>
+      </c>
+      <c r="P212" t="n">
+        <v>5628633</v>
+      </c>
+      <c r="Q212" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R212" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S212" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T212" t="inlineStr">
+        <is>
+          <t>Whau_1b</t>
+        </is>
+      </c>
+      <c r="U212" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Waitangi at u/s Waiouru STP</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr"/>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F213" t="n">
+        <v>0.256</v>
+      </c>
+      <c r="G213" t="n">
+        <v>0.257508620689655</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0.413</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0.3683</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>0.30275</v>
+      </c>
+      <c r="M213" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="N213" t="n">
+        <v>0.34972</v>
+      </c>
+      <c r="O213" t="n">
+        <v>1828759</v>
+      </c>
+      <c r="P213" t="n">
+        <v>5628633</v>
+      </c>
+      <c r="Q213" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R213" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S213" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T213" t="inlineStr">
+        <is>
+          <t>Whau_1b</t>
+        </is>
+      </c>
+      <c r="U213" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Waitangi at u/s Waiouru STP</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr"/>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F214" t="n">
+        <v>0.256</v>
+      </c>
+      <c r="G214" t="n">
+        <v>0.257508620689655</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0.413</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0.3683</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>0.30275</v>
+      </c>
+      <c r="M214" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="N214" t="n">
+        <v>0.34972</v>
+      </c>
+      <c r="O214" t="n">
+        <v>1828759</v>
+      </c>
+      <c r="P214" t="n">
+        <v>5628633</v>
+      </c>
+      <c r="Q214" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R214" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S214" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T214" t="inlineStr">
+        <is>
+          <t>Whau_1b</t>
+        </is>
+      </c>
+      <c r="U214" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Waitangi at u/s Waiouru STP</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr"/>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F215" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G215" t="n">
+        <v>0.317758620689655</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="M215" t="n">
+        <v>0.3864</v>
+      </c>
+      <c r="N215" t="n">
+        <v>0.4186</v>
+      </c>
+      <c r="O215" t="n">
+        <v>1828759</v>
+      </c>
+      <c r="P215" t="n">
+        <v>5628633</v>
+      </c>
+      <c r="Q215" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R215" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S215" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T215" t="inlineStr">
+        <is>
+          <t>Whau_1b</t>
+        </is>
+      </c>
+      <c r="U215" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Waitangi at u/s Waiouru STP</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr"/>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F216" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G216" t="n">
+        <v>0.317758620689655</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="M216" t="n">
+        <v>0.3864</v>
+      </c>
+      <c r="N216" t="n">
+        <v>0.4186</v>
+      </c>
+      <c r="O216" t="n">
+        <v>1828759</v>
+      </c>
+      <c r="P216" t="n">
+        <v>5628633</v>
+      </c>
+      <c r="Q216" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R216" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S216" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T216" t="inlineStr">
+        <is>
+          <t>Whau_1b</t>
+        </is>
+      </c>
+      <c r="U216" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Waitangi at u/s Waiouru STP</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr"/>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F217" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="G217" t="n">
+        <v>0.0373275862068966</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>0.0315</v>
+      </c>
+      <c r="M217" t="n">
+        <v>0.05228</v>
+      </c>
+      <c r="N217" t="n">
+        <v>0.06558</v>
+      </c>
+      <c r="O217" t="n">
+        <v>1828759</v>
+      </c>
+      <c r="P217" t="n">
+        <v>5628633</v>
+      </c>
+      <c r="Q217" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R217" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S217" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T217" t="inlineStr">
+        <is>
+          <t>Whau_1b</t>
+        </is>
+      </c>
+      <c r="U217" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Waitangi at u/s Waiouru STP</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr"/>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F218" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="G218" t="n">
+        <v>0.0373275862068966</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>0.0315</v>
+      </c>
+      <c r="M218" t="n">
+        <v>0.05228</v>
+      </c>
+      <c r="N218" t="n">
+        <v>0.06558</v>
+      </c>
+      <c r="O218" t="n">
+        <v>1828759</v>
+      </c>
+      <c r="P218" t="n">
+        <v>5628633</v>
+      </c>
+      <c r="Q218" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R218" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S218" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="T218" t="inlineStr">
+        <is>
+          <t>Whau_1b</t>
+        </is>
+      </c>
+      <c r="U218" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/WaitangiatusWaiouruSTP_6b14f50901.xlsx
+++ b/state_results/Rivers/WaitangiatusWaiouruSTP_6b14f50901.xlsx
@@ -8311,27 +8311,27 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>1.63</v>
+        <v>1.59334</v>
       </c>
       <c r="G98" t="n">
-        <v>1.74667362404314</v>
+        <v>1.63594953696152</v>
       </c>
       <c r="H98" t="n">
-        <v>4.53997938069665</v>
+        <v>3</v>
       </c>
       <c r="I98" t="n">
-        <v>3.02265</v>
+        <v>2.84764</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
-        <v>2.06</v>
+        <v>1.81</v>
       </c>
       <c r="M98" t="n">
-        <v>2.29121</v>
+        <v>2.179</v>
       </c>
       <c r="N98" t="n">
-        <v>2.78924</v>
+        <v>2.426</v>
       </c>
       <c r="O98" t="n">
         <v>1828759</v>
@@ -9747,7 +9747,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -9761,27 +9761,27 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>1.6</v>
+        <v>1.50183</v>
       </c>
       <c r="G116" t="n">
-        <v>1.59479389536045</v>
+        <v>1.4887814715589</v>
       </c>
       <c r="H116" t="n">
-        <v>4.53997938069665</v>
+        <v>3</v>
       </c>
       <c r="I116" t="n">
-        <v>3.01359</v>
+        <v>2.83258</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
-        <v>1.935</v>
+        <v>1.72</v>
       </c>
       <c r="M116" t="n">
-        <v>2.2713</v>
+        <v>2.1314</v>
       </c>
       <c r="N116" t="n">
-        <v>2.75603</v>
+        <v>2.4036</v>
       </c>
       <c r="O116" t="n">
         <v>1828759</v>
@@ -11211,27 +11211,27 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>1.55</v>
+        <v>1.47</v>
       </c>
       <c r="G134" t="n">
-        <v>1.63987666005109</v>
+        <v>1.50875603061233</v>
       </c>
       <c r="H134" t="n">
-        <v>4.53997938069665</v>
+        <v>3</v>
       </c>
       <c r="I134" t="n">
-        <v>3.05437</v>
+        <v>2.90033</v>
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="M134" t="n">
-        <v>2.3056</v>
+        <v>2.22842</v>
       </c>
       <c r="N134" t="n">
-        <v>2.8974</v>
+        <v>2.6102</v>
       </c>
       <c r="O134" t="n">
         <v>1828759</v>
